--- a/premise/data/additional_inventories/lci-cobalt.xlsx
+++ b/premise/data/additional_inventories/lci-cobalt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5DB36-E744-E747-861A-29953AA4048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="30240" windowHeight="18885"/>
   </bookViews>
   <sheets>
     <sheet name="disaggregated cobalt" sheetId="3" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cobalt!$A$3:$O$184</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="200">
   <si>
     <t>Activity</t>
   </si>
@@ -657,12 +656,18 @@
   <si>
     <t>Total ore consumption [t/y]</t>
   </si>
+  <si>
+    <t>market for copper-cobalt ore</t>
+  </si>
+  <si>
+    <t>Market created to facilitate the regionalization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -670,6 +675,7 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -883,7 +889,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -943,19 +949,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0E23583C-AEE8-A14E-BBED-EFF8448F4281}"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
-    <cellStyle name="Per cent 2" xfId="3" xr:uid="{D55BF8F8-B642-CC4D-B89F-8E3060549780}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Per cent 2" xfId="3"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1232,20 +1243,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F405F435-5E2B-E644-83D2-BBB8FE808D59}">
-  <dimension ref="A1:L230"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1277,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1285,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1309,13 +1320,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1358,7 +1369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1418,7 +1429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +1449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1458,7 +1469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1519,7 +1530,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1539,7 +1550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1560,7 +1571,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1581,7 +1592,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1602,7 +1613,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1622,7 +1633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1642,7 +1653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1662,7 +1673,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -1682,7 +1693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -1699,7 +1710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1716,7 +1727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1733,7 +1744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1767,7 +1778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1784,7 +1795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1801,7 +1812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1818,7 +1829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1835,10 +1846,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1866,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>3</v>
       </c>
@@ -1872,7 +1883,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1900,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1917,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>7</v>
       </c>
@@ -1923,7 +1934,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>1</v>
       </c>
@@ -1940,7 +1951,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>10</v>
       </c>
@@ -1955,7 +1966,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
@@ -1982,7 +1993,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>86</v>
       </c>
@@ -2007,7 +2018,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>90</v>
       </c>
@@ -2030,7 +2041,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>92</v>
       </c>
@@ -2048,7 +2059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2076,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>3</v>
       </c>
@@ -2082,7 +2093,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2110,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>6</v>
       </c>
@@ -2116,7 +2127,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +2144,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +2161,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>10</v>
       </c>
@@ -2165,7 +2176,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
@@ -2192,7 +2203,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>93</v>
       </c>
@@ -2217,7 +2228,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>90</v>
       </c>
@@ -2240,7 +2251,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>92</v>
       </c>
@@ -2258,7 +2269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -2276,7 +2287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2297,7 +2308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -2315,7 +2326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -2333,12 +2344,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>187</v>
       </c>
-      <c r="B66">
-        <f>0.000288682761151584/(B184*B125*B216)</f>
+      <c r="B66" s="59">
+        <f>0.000288682761151584/(B196*B124*B148*B228)</f>
         <v>1.7060578978245007E-6</v>
       </c>
       <c r="C66" t="s">
@@ -2351,12 +2362,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>190</v>
       </c>
-      <c r="B67">
-        <f>9.59621316379749E-06/(B184*B125*B216)</f>
+      <c r="B67" s="59">
+        <f>9.59621316379749E-06/(B196*B124*B148*B228)</f>
         <v>5.6711717706993802E-8</v>
       </c>
       <c r="C67" t="s">
@@ -2369,12 +2380,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>192</v>
       </c>
-      <c r="B68">
-        <f>9.59621316379749E-06/(B184*B125*B216)</f>
+      <c r="B68" s="59">
+        <f>9.59621316379749E-06/(B196*B124*B148*B228)</f>
         <v>5.6711717706993802E-8</v>
       </c>
       <c r="C68" t="s">
@@ -2387,7 +2398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2415,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>3</v>
       </c>
@@ -2421,7 +2432,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>5</v>
       </c>
@@ -2438,7 +2449,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>6</v>
       </c>
@@ -2455,7 +2466,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2483,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>1</v>
       </c>
@@ -2489,7 +2500,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>10</v>
       </c>
@@ -2504,7 +2515,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>11</v>
       </c>
@@ -2531,7 +2542,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>98</v>
       </c>
@@ -2556,7 +2567,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>90</v>
       </c>
@@ -2579,7 +2590,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>92</v>
       </c>
@@ -2597,7 +2608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -2615,7 +2626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -2654,7 +2665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -2672,12 +2683,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>187</v>
       </c>
       <c r="B85">
-        <f>0.000288682761151584/(B216*B150*B100)</f>
+        <f>0.000288682761151584/(B228*B162*B100)</f>
         <v>2.3569299555983307E-6</v>
       </c>
       <c r="C85" t="s">
@@ -2690,12 +2701,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>190</v>
       </c>
       <c r="B86">
-        <f>9.59621316379749E-06/(B216*B150*B100)</f>
+        <f>9.59621316379749E-06/(B228*B162*B100)</f>
         <v>7.8347602661958373E-8</v>
       </c>
       <c r="C86" t="s">
@@ -2708,12 +2719,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>192</v>
       </c>
       <c r="B87">
-        <f>9.59621316379749E-06/(B216*B150*B100)</f>
+        <f>9.59621316379749E-06/(B228*B162*B100)</f>
         <v>7.8347602661958373E-8</v>
       </c>
       <c r="C87" t="s">
@@ -2726,7 +2737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +2754,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>3</v>
       </c>
@@ -2760,7 +2771,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>5</v>
       </c>
@@ -2777,7 +2788,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +2805,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>7</v>
       </c>
@@ -2811,7 +2822,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>1</v>
       </c>
@@ -2828,7 +2839,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>174</v>
       </c>
@@ -2845,7 +2856,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>10</v>
       </c>
@@ -2860,7 +2871,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>11</v>
       </c>
@@ -2887,7 +2898,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -2912,7 +2923,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>86</v>
       </c>
@@ -2934,7 +2945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>98</v>
       </c>
@@ -2956,7 +2967,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>195</v>
       </c>
@@ -2977,7 +2988,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2998,7 +3009,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -3019,7 +3030,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -3040,7 +3051,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>44</v>
       </c>
@@ -3061,7 +3072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -3082,7 +3093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3102,7 +3113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3122,7 +3133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>95</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>73</v>
       </c>
@@ -3158,7 +3169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3178,7 +3189,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3198,13 +3209,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>0</v>
       </c>
@@ -3221,7 +3232,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>3</v>
       </c>
@@ -3238,7 +3249,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3266,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>6</v>
       </c>
@@ -3272,7 +3283,7 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>7</v>
       </c>
@@ -3289,7 +3300,7 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>1</v>
       </c>
@@ -3306,7 +3317,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>175</v>
       </c>
@@ -3323,7 +3334,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>10</v>
       </c>
@@ -3338,7 +3349,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>11</v>
       </c>
@@ -3365,7 +3376,7 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>116</v>
       </c>
@@ -3390,20 +3401,20 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B124" s="15">
-        <f>0.2*params!M31</f>
-        <v>14.8</v>
+        <v>198</v>
+      </c>
+      <c r="B124" s="57">
+        <f>1*params!M31</f>
+        <v>74</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>15</v>
@@ -3411,58 +3422,61 @@
       <c r="G124" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="9" t="s">
-        <v>93</v>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>195</v>
       </c>
       <c r="B125" s="15">
-        <f>0.8*params!M31</f>
-        <v>59.2</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>195</v>
-      </c>
-      <c r="B126" s="15">
         <f>params!G9</f>
         <v>3.0086695138888886</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C125" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F126" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" s="9" t="s">
+      <c r="F125" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B126" s="16">
         <f>params!G16</f>
         <v>0.52289999999999992</v>
       </c>
+      <c r="C126" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127" s="15">
+        <f>params!G15</f>
+        <v>1.4357</v>
+      </c>
       <c r="C127" s="9" t="s">
         <v>8</v>
       </c>
@@ -3473,38 +3487,38 @@
         <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B128" s="15">
-        <f>params!G15</f>
-        <v>1.4357</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>105</v>
-      </c>
-      <c r="B129" s="15">
         <f>params!G18</f>
         <v>0.41125</v>
       </c>
+      <c r="C128" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="15">
+        <f>params!G17</f>
+        <v>6.3E-2</v>
+      </c>
       <c r="C129" s="9" t="s">
         <v>8</v>
       </c>
@@ -3515,16 +3529,16 @@
         <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B130" s="15">
-        <f>params!G17</f>
-        <v>6.3E-2</v>
+        <f>params!G14</f>
+        <v>1.10355</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>8</v>
@@ -3536,19 +3550,18 @@
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>107</v>
-      </c>
-      <c r="B131" s="15">
-        <f>params!G14</f>
-        <v>1.10355</v>
+        <v>109</v>
+      </c>
+      <c r="B131" s="16">
+        <v>2.7</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>4</v>
@@ -3557,15 +3570,15 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>109</v>
-      </c>
-      <c r="B132" s="16">
-        <v>2.7</v>
+        <v>110</v>
+      </c>
+      <c r="B132" s="15">
+        <v>13</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>22</v>
@@ -3577,68 +3590,68 @@
         <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B133" s="15">
-        <v>13</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>95</v>
-      </c>
-      <c r="B134" s="15">
         <f>params!G12/1000</f>
         <v>5.2141045950000006E-2</v>
       </c>
+      <c r="C133" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>73</v>
+      </c>
+      <c r="B134" s="15">
+        <f>params!G28</f>
+        <v>1.0066E-2</v>
+      </c>
       <c r="C134" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>91</v>
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>39</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B135" s="15">
-        <f>params!G28</f>
-        <v>1.0066E-2</v>
+        <v>-22</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D135" t="s">
-        <v>39</v>
+      <c r="E135" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B136" s="15">
         <v>-22</v>
@@ -3647,1400 +3660,1352 @@
         <v>8</v>
       </c>
       <c r="E136" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="55"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C139" s="55"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F136" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>113</v>
-      </c>
-      <c r="B137" s="15">
-        <v>-22</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-    </row>
-    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="55"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="55">
+        <v>1</v>
+      </c>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55"/>
+      <c r="G141" s="55"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="55"/>
+      <c r="D142" s="55"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="55"/>
+      <c r="G142" s="55"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" s="55"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="55"/>
+      <c r="G143" s="55"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="55"/>
+      <c r="C144" s="55"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="55"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J145" s="54"/>
+      <c r="K145" s="54"/>
+      <c r="L145" s="54"/>
+      <c r="M145" s="54"/>
+      <c r="N145" s="54"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J146" s="9"/>
+      <c r="K146" s="55"/>
+      <c r="L146" s="55"/>
+      <c r="M146" s="55"/>
+      <c r="N146" s="55"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147">
+        <v>0.2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>87</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B148">
+        <v>0.8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>87</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+    </row>
+    <row r="151" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B151" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>1</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B152" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>3</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B153" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>5</v>
       </c>
-      <c r="B142">
+      <c r="B154">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>6</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B155" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>7</v>
       </c>
-      <c r="B144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>9</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B157" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>119</v>
       </c>
-      <c r="B146">
+      <c r="B158">
         <v>0.38</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>11</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B160" t="s">
         <v>12</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C160" t="s">
         <v>7</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D160" t="s">
         <v>36</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E160" t="s">
         <v>3</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F160" t="s">
         <v>13</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G160" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>185</v>
       </c>
-      <c r="B149">
+      <c r="B161">
         <v>1</v>
       </c>
-      <c r="C149" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
         <v>43</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F161" t="s">
         <v>14</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G161" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>99</v>
       </c>
-      <c r="B150" s="16">
-        <f>2.86*B146</f>
+      <c r="B162" s="16">
+        <f>2.86*B158</f>
         <v>1.0868</v>
       </c>
-      <c r="C150" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
         <v>87</v>
       </c>
-      <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>120</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B163" s="16">
         <f>params!$H$10</f>
         <v>10.759354200000001</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C163" t="s">
         <v>31</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E163" t="s">
         <v>17</v>
       </c>
-      <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>19</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B164" s="16">
         <f>params!$H$9</f>
         <v>1.1514738888888889</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C164" t="s">
         <v>20</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E164" t="s">
         <v>43</v>
       </c>
-      <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>16</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B165" s="16">
         <f>params!$H$12</f>
         <v>18.832213584000002</v>
       </c>
-      <c r="C153" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="s">
         <v>17</v>
       </c>
-      <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>44</v>
       </c>
-      <c r="B154" s="16">
+      <c r="B166" s="16">
         <f>params!$H$17</f>
         <v>1.0392999999999999</v>
       </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
         <v>4</v>
       </c>
-      <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s">
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>52</v>
       </c>
-      <c r="B155" s="16">
+      <c r="B167" s="16">
         <f>params!$H$19</f>
         <v>0.97659999999999991</v>
       </c>
-      <c r="C155" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" t="s">
         <v>17</v>
       </c>
-      <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>58</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B168" s="16">
         <f>params!$H$20</f>
         <v>0.53542000000000001</v>
       </c>
-      <c r="C156" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
         <v>17</v>
       </c>
-      <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s">
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>56</v>
       </c>
-      <c r="B157" s="16">
+      <c r="B169" s="16">
         <f>params!$H$15</f>
         <v>2.128E-2</v>
       </c>
-      <c r="C157" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
         <v>17</v>
       </c>
-      <c r="F157" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="F169" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>83</v>
       </c>
-      <c r="B158" s="16">
+      <c r="B170" s="16">
         <f>params!$H$16</f>
         <v>8.3599999999999994E-3</v>
       </c>
-      <c r="C158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" t="s">
         <v>17</v>
       </c>
-      <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>60</v>
       </c>
-      <c r="B159" s="16">
+      <c r="B171" s="16">
         <f>params!$H$21</f>
         <v>1.7860000000000001E-2</v>
       </c>
-      <c r="C159" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
         <v>17</v>
       </c>
-      <c r="F159" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="F171" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>62</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B172" s="16">
         <f>params!$H$22</f>
         <v>3.04E-2</v>
       </c>
-      <c r="C160" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" t="s">
         <v>4</v>
       </c>
-      <c r="F160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="F172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>121</v>
       </c>
-      <c r="B161" s="16">
+      <c r="B173" s="16">
         <f>params!$H$23</f>
         <v>0.21811999999999998</v>
       </c>
-      <c r="C161" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" t="s">
         <v>17</v>
       </c>
-      <c r="F161" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="F173" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>123</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B174" s="16">
         <f>params!$H$24</f>
         <v>3.3439999999999998E-2</v>
       </c>
-      <c r="C162" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" t="s">
         <v>4</v>
       </c>
-      <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" t="s">
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>35</v>
       </c>
-      <c r="B163" s="16">
+      <c r="B175" s="16">
         <v>3.2859232000000002E-2</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C175" t="s">
         <v>22</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E175" t="s">
         <v>17</v>
       </c>
-      <c r="F163" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="F175" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>37</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B176" s="16">
         <v>2.6585139999999998E-3</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C176" t="s">
         <v>22</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E176" t="s">
         <v>17</v>
       </c>
-      <c r="F164" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="F176" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>23</v>
       </c>
-      <c r="B165" s="16">
+      <c r="B177" s="16">
         <v>2.2225175999999999E-2</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C177" t="s">
         <v>22</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E177" t="s">
         <v>17</v>
       </c>
-      <c r="F165" t="s">
-        <v>15</v>
-      </c>
-      <c r="G165" t="s">
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>27</v>
       </c>
-      <c r="B166" s="16">
+      <c r="B178" s="16">
         <v>6.3697992999999994E-2</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C178" t="s">
         <v>22</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E178" t="s">
         <v>4</v>
       </c>
-      <c r="F166" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" t="s">
+      <c r="F178" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>54</v>
       </c>
-      <c r="B167" s="16">
+      <c r="B179" s="16">
         <v>-1.0035100616353101</v>
       </c>
-      <c r="C167" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" t="s">
         <v>17</v>
       </c>
-      <c r="F167" t="s">
-        <v>15</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="F179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>47</v>
       </c>
-      <c r="B168" s="16">
+      <c r="B180" s="16">
         <v>-1.88412598664482E-2</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C180" t="s">
         <v>42</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E180" t="s">
         <v>17</v>
       </c>
-      <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="F180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>33</v>
       </c>
-      <c r="B169" s="16">
+      <c r="B181" s="16">
         <v>4.0000000000000001E-10</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C181" t="s">
         <v>7</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E181" t="s">
         <v>4</v>
       </c>
-      <c r="F169" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="F181" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>49</v>
       </c>
-      <c r="B170" s="16">
+      <c r="B182" s="16">
         <v>1.88412598664482E-2</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C182" t="s">
         <v>42</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D182" t="s">
         <v>50</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F182" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>41</v>
       </c>
-      <c r="B171" s="16">
+      <c r="B183" s="16">
         <v>2.3245761180933701E-4</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C183" t="s">
         <v>42</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D183" t="s">
         <v>64</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F183" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+    <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B185" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>1</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B186" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>3</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B187" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>5</v>
       </c>
-      <c r="B176">
+      <c r="B188">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>6</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B189" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>7</v>
       </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>9</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B191" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>119</v>
       </c>
-      <c r="B180">
+      <c r="B192">
         <v>0.38</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>11</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B194" t="s">
         <v>12</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C194" t="s">
         <v>7</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D194" t="s">
         <v>36</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E194" t="s">
         <v>3</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F194" t="s">
         <v>13</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G194" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>186</v>
       </c>
-      <c r="B183">
+      <c r="B195">
         <v>1</v>
       </c>
-      <c r="C183" t="s">
-        <v>8</v>
-      </c>
-      <c r="E183" t="s">
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" t="s">
         <v>43</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F195" t="s">
         <v>14</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G195" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>116</v>
       </c>
-      <c r="B184" s="16">
-        <f>2.86*B180</f>
+      <c r="B196" s="16">
+        <f>2.86*B192</f>
         <v>1.0868</v>
       </c>
-      <c r="C184" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
         <v>87</v>
       </c>
-      <c r="F184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="F196" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>120</v>
       </c>
-      <c r="B185" s="16">
+      <c r="B197" s="16">
         <f>params!$H$10</f>
         <v>10.759354200000001</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C197" t="s">
         <v>31</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E197" t="s">
         <v>17</v>
       </c>
-      <c r="F185" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" t="s">
+      <c r="F197" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>19</v>
       </c>
-      <c r="B186" s="16">
+      <c r="B198" s="16">
         <f>params!$H$9</f>
         <v>1.1514738888888889</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C198" t="s">
         <v>20</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E198" t="s">
         <v>43</v>
       </c>
-      <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="F198" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>16</v>
       </c>
-      <c r="B187" s="16">
+      <c r="B199" s="16">
         <f>params!$H$12</f>
         <v>18.832213584000002</v>
       </c>
-      <c r="C187" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
         <v>17</v>
       </c>
-      <c r="F187" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="F199" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>44</v>
       </c>
-      <c r="B188" s="16">
+      <c r="B200" s="16">
         <f>params!$H$17</f>
         <v>1.0392999999999999</v>
       </c>
-      <c r="C188" t="s">
-        <v>8</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" t="s">
         <v>4</v>
       </c>
-      <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s">
+      <c r="F200" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>52</v>
       </c>
-      <c r="B189" s="16">
+      <c r="B201" s="16">
         <f>params!$H$19</f>
         <v>0.97659999999999991</v>
       </c>
-      <c r="C189" t="s">
-        <v>8</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
         <v>17</v>
       </c>
-      <c r="F189" t="s">
-        <v>15</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="F201" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>58</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B202" s="16">
         <f>params!$H$20</f>
         <v>0.53542000000000001</v>
       </c>
-      <c r="C190" t="s">
-        <v>8</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
         <v>17</v>
       </c>
-      <c r="F190" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="F202" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>56</v>
       </c>
-      <c r="B191" s="16">
+      <c r="B203" s="16">
         <f>params!$H$15</f>
         <v>2.128E-2</v>
       </c>
-      <c r="C191" t="s">
-        <v>8</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
         <v>17</v>
       </c>
-      <c r="F191" t="s">
-        <v>15</v>
-      </c>
-      <c r="G191" t="s">
+      <c r="F203" t="s">
+        <v>15</v>
+      </c>
+      <c r="G203" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>83</v>
       </c>
-      <c r="B192" s="16">
+      <c r="B204" s="16">
         <f>params!$H$16</f>
         <v>8.3599999999999994E-3</v>
       </c>
-      <c r="C192" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
         <v>17</v>
       </c>
-      <c r="F192" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" t="s">
+      <c r="F204" t="s">
+        <v>15</v>
+      </c>
+      <c r="G204" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>60</v>
       </c>
-      <c r="B193" s="16">
+      <c r="B205" s="16">
         <f>params!$H$21</f>
         <v>1.7860000000000001E-2</v>
       </c>
-      <c r="C193" t="s">
-        <v>8</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
         <v>17</v>
       </c>
-      <c r="F193" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" t="s">
+      <c r="F205" t="s">
+        <v>15</v>
+      </c>
+      <c r="G205" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>62</v>
       </c>
-      <c r="B194" s="16">
+      <c r="B206" s="16">
         <f>params!$H$22</f>
         <v>3.04E-2</v>
       </c>
-      <c r="C194" t="s">
-        <v>8</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" t="s">
         <v>4</v>
       </c>
-      <c r="F194" t="s">
-        <v>15</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="F206" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>121</v>
       </c>
-      <c r="B195" s="16">
+      <c r="B207" s="16">
         <f>params!$H$23</f>
         <v>0.21811999999999998</v>
       </c>
-      <c r="C195" t="s">
-        <v>8</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" t="s">
         <v>17</v>
       </c>
-      <c r="F195" t="s">
-        <v>15</v>
-      </c>
-      <c r="G195" t="s">
+      <c r="F207" t="s">
+        <v>15</v>
+      </c>
+      <c r="G207" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>123</v>
       </c>
-      <c r="B196" s="16">
+      <c r="B208" s="16">
         <f>params!$H$24</f>
         <v>3.3439999999999998E-2</v>
       </c>
-      <c r="C196" t="s">
-        <v>8</v>
-      </c>
-      <c r="E196" t="s">
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
         <v>4</v>
       </c>
-      <c r="F196" t="s">
-        <v>15</v>
-      </c>
-      <c r="G196" t="s">
+      <c r="F208" t="s">
+        <v>15</v>
+      </c>
+      <c r="G208" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>35</v>
       </c>
-      <c r="B197" s="16">
+      <c r="B209" s="16">
         <v>3.2859232000000002E-2</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C209" t="s">
         <v>22</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E209" t="s">
         <v>17</v>
       </c>
-      <c r="F197" t="s">
-        <v>15</v>
-      </c>
-      <c r="G197" t="s">
+      <c r="F209" t="s">
+        <v>15</v>
+      </c>
+      <c r="G209" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>37</v>
       </c>
-      <c r="B198" s="16">
+      <c r="B210" s="16">
         <v>2.6585139999999998E-3</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C210" t="s">
         <v>22</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E210" t="s">
         <v>17</v>
       </c>
-      <c r="F198" t="s">
-        <v>15</v>
-      </c>
-      <c r="G198" t="s">
+      <c r="F210" t="s">
+        <v>15</v>
+      </c>
+      <c r="G210" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>23</v>
       </c>
-      <c r="B199" s="16">
+      <c r="B211" s="16">
         <v>2.2225175999999999E-2</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C211" t="s">
         <v>22</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E211" t="s">
         <v>17</v>
       </c>
-      <c r="F199" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" t="s">
+      <c r="F211" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>27</v>
       </c>
-      <c r="B200" s="16">
+      <c r="B212" s="16">
         <v>6.3697992999999994E-2</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C212" t="s">
         <v>22</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E212" t="s">
         <v>4</v>
       </c>
-      <c r="F200" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="F212" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>54</v>
       </c>
-      <c r="B201" s="16">
+      <c r="B213" s="16">
         <v>-1.0035100616353101</v>
       </c>
-      <c r="C201" t="s">
-        <v>8</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" t="s">
         <v>17</v>
       </c>
-      <c r="F201" t="s">
-        <v>15</v>
-      </c>
-      <c r="G201" t="s">
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>47</v>
       </c>
-      <c r="B202" s="16">
+      <c r="B214" s="16">
         <v>-1.88412598664482E-2</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C214" t="s">
         <v>42</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E214" t="s">
         <v>17</v>
       </c>
-      <c r="F202" t="s">
-        <v>15</v>
-      </c>
-      <c r="G202" t="s">
+      <c r="F214" t="s">
+        <v>15</v>
+      </c>
+      <c r="G214" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>33</v>
       </c>
-      <c r="B203" s="16">
+      <c r="B215" s="16">
         <v>4.0000000000000001E-10</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C215" t="s">
         <v>7</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E215" t="s">
         <v>4</v>
       </c>
-      <c r="F203" t="s">
-        <v>15</v>
-      </c>
-      <c r="G203" t="s">
+      <c r="F215" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>49</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B216" s="16">
         <v>1.88412598664482E-2</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C216" t="s">
         <v>42</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D216" t="s">
         <v>50</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F216" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>41</v>
       </c>
-      <c r="B205" s="16">
+      <c r="B217" s="16">
         <v>2.3245761180933701E-4</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C217" t="s">
         <v>42</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D217" t="s">
         <v>64</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F217" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B206" s="16"/>
-    </row>
-    <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C207" s="8"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
-      <c r="F207" s="9"/>
-      <c r="G207" s="9"/>
-      <c r="H207" s="9"/>
-      <c r="I207" s="9"/>
-      <c r="J207" s="9"/>
-      <c r="K207" s="9"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="9"/>
-      <c r="H208" s="9"/>
-      <c r="I208" s="9"/>
-      <c r="J208" s="9"/>
-      <c r="K208" s="9"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="9">
-        <v>1</v>
-      </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="9"/>
-      <c r="H209" s="9"/>
-      <c r="I209" s="9"/>
-      <c r="J209" s="9"/>
-      <c r="K209" s="9"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
-      <c r="F210" s="9"/>
-      <c r="G210" s="9"/>
-      <c r="H210" s="9"/>
-      <c r="I210" s="9"/>
-      <c r="J210" s="9"/>
-      <c r="K210" s="9"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
-      <c r="E211" s="9"/>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9"/>
-      <c r="H211" s="9"/>
-      <c r="I211" s="9"/>
-      <c r="J211" s="9"/>
-      <c r="K211" s="9"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-      <c r="E212" s="9"/>
-      <c r="F212" s="9"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="9"/>
-      <c r="I212" s="9"/>
-      <c r="J212" s="9"/>
-      <c r="K212" s="9"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
-      <c r="H213" s="9"/>
-      <c r="I213" s="9"/>
-      <c r="J213" s="9"/>
-      <c r="K213" s="9"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F214" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G214" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H214" s="9"/>
-      <c r="I214" s="9"/>
-      <c r="J214" s="9"/>
-      <c r="K214" s="9"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B215" s="9">
-        <v>1</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F215" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G215" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H215" s="9"/>
-      <c r="I215" s="9"/>
-      <c r="J215" s="9"/>
-      <c r="K215" s="9"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>185</v>
-      </c>
-      <c r="B216" s="9">
-        <v>2.63</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="9"/>
-      <c r="E216" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F216" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G216" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H216" s="9"/>
-      <c r="I216" s="9"/>
-      <c r="J216" s="9"/>
-      <c r="K216" s="9"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>19</v>
-      </c>
-      <c r="B217">
-        <f>params!I9</f>
-        <v>3.4</v>
-      </c>
-      <c r="C217" t="s">
-        <v>20</v>
-      </c>
-      <c r="E217" t="s">
-        <v>43</v>
-      </c>
-      <c r="F217" t="s">
-        <v>15</v>
-      </c>
-      <c r="G217" t="s">
-        <v>21</v>
-      </c>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
-      <c r="K217" s="9"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
-      <c r="H218" s="9"/>
-      <c r="I218" s="9"/>
-      <c r="J218" s="9"/>
-      <c r="K218" s="9"/>
-    </row>
-    <row r="219" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="16"/>
+    </row>
+    <row r="219" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="9"/>
@@ -5052,7 +5017,7 @@
       <c r="J219" s="9"/>
       <c r="K219" s="9"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -5069,7 +5034,7 @@
       <c r="J220" s="9"/>
       <c r="K220" s="9"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -5086,7 +5051,7 @@
       <c r="J221" s="9"/>
       <c r="K221" s="9"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>6</v>
       </c>
@@ -5103,7 +5068,7 @@
       <c r="J222" s="9"/>
       <c r="K222" s="9"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>7</v>
       </c>
@@ -5120,7 +5085,7 @@
       <c r="J223" s="9"/>
       <c r="K223" s="9"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>1</v>
       </c>
@@ -5137,7 +5102,7 @@
       <c r="J224" s="9"/>
       <c r="K224" s="9"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>10</v>
       </c>
@@ -5152,7 +5117,7 @@
       <c r="J225" s="9"/>
       <c r="K225" s="9"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -5179,9 +5144,9 @@
       <c r="J226" s="9"/>
       <c r="K226" s="9"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B227" s="9">
         <v>1</v>
@@ -5204,9 +5169,9 @@
       <c r="J227" s="9"/>
       <c r="K227" s="9"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B228" s="9">
         <v>2.63</v>
@@ -5229,7 +5194,7 @@
       <c r="J228" s="9"/>
       <c r="K228" s="9"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -5254,7 +5219,7 @@
       <c r="J229" s="9"/>
       <c r="K229" s="9"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -5267,6 +5232,238 @@
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
     </row>
+    <row r="231" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C231" s="8"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+      <c r="I231" s="9"/>
+      <c r="J231" s="9"/>
+      <c r="K231" s="9"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
+      <c r="I232" s="9"/>
+      <c r="J232" s="9"/>
+      <c r="K232" s="9"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="9">
+        <v>1</v>
+      </c>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="9"/>
+      <c r="K233" s="9"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C234" s="9"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
+      <c r="I234" s="9"/>
+      <c r="J234" s="9"/>
+      <c r="K234" s="9"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="9"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
+      <c r="I235" s="9"/>
+      <c r="J235" s="9"/>
+      <c r="K235" s="9"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="9"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B239" s="9">
+        <v>1</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="9"/>
+      <c r="E239" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H239" s="9"/>
+      <c r="I239" s="9"/>
+      <c r="J239" s="9"/>
+      <c r="K239" s="9"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>186</v>
+      </c>
+      <c r="B240" s="9">
+        <v>2.63</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="9"/>
+      <c r="E240" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H240" s="9"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="9"/>
+      <c r="K240" s="9"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241">
+        <f>params!I9</f>
+        <v>3.4</v>
+      </c>
+      <c r="C241" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241" t="s">
+        <v>43</v>
+      </c>
+      <c r="F241" t="s">
+        <v>15</v>
+      </c>
+      <c r="G241" t="s">
+        <v>21</v>
+      </c>
+      <c r="H241" s="9"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="9"/>
+      <c r="K241" s="9"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="9"/>
+      <c r="B242" s="9"/>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5274,25 +5471,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -5309,7 +5506,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -5326,7 +5523,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5343,7 +5540,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -5360,7 +5557,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -5377,7 +5574,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
@@ -5394,7 +5591,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -5409,7 +5606,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -5436,7 +5633,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>185</v>
       </c>
@@ -5461,7 +5658,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>90</v>
       </c>
@@ -5485,7 +5682,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -5510,7 +5707,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -5532,7 +5729,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5554,7 +5751,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -5579,7 +5776,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5604,7 +5801,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -5625,7 +5822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -5646,7 +5843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -5666,7 +5863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -5686,7 +5883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -5706,7 +5903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -5726,7 +5923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -5746,7 +5943,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -5766,7 +5963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -5786,7 +5983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -5806,7 +6003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -5826,7 +6023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -5846,7 +6043,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -5866,7 +6063,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -5884,7 +6081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -5905,7 +6102,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -5926,7 +6123,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -5944,7 +6141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -5962,7 +6159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -5980,7 +6177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>192</v>
       </c>
@@ -5998,7 +6195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>0</v>
       </c>
@@ -6015,7 +6212,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>3</v>
       </c>
@@ -6032,7 +6229,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>5</v>
       </c>
@@ -6049,7 +6246,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>6</v>
       </c>
@@ -6066,7 +6263,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>7</v>
       </c>
@@ -6083,7 +6280,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>1</v>
       </c>
@@ -6100,7 +6297,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>10</v>
       </c>
@@ -6115,7 +6312,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -6142,7 +6339,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>186</v>
       </c>
@@ -6167,7 +6364,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>90</v>
       </c>
@@ -6191,7 +6388,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -6216,7 +6413,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -6238,7 +6435,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -6260,7 +6457,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -6285,7 +6482,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -6310,7 +6507,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -6331,7 +6528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -6352,7 +6549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -6372,7 +6569,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -6392,7 +6589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6412,7 +6609,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -6432,7 +6629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -6452,7 +6649,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -6472,7 +6669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -6492,7 +6689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -6512,7 +6709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -6532,7 +6729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -6552,7 +6749,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -6572,7 +6769,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -6590,7 +6787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -6611,7 +6808,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>113</v>
       </c>
@@ -6632,7 +6829,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -6650,7 +6847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -6668,7 +6865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -6686,7 +6883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -6704,7 +6901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>0</v>
       </c>
@@ -6721,7 +6918,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>3</v>
       </c>
@@ -6738,7 +6935,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>5</v>
       </c>
@@ -6755,7 +6952,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>6</v>
       </c>
@@ -6772,7 +6969,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>7</v>
       </c>
@@ -6789,7 +6986,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>1</v>
       </c>
@@ -6806,7 +7003,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
@@ -6821,7 +7018,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>11</v>
       </c>
@@ -6848,7 +7045,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>127</v>
       </c>
@@ -6873,7 +7070,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>90</v>
       </c>
@@ -6896,7 +7093,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -6921,7 +7118,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -6943,7 +7140,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -6965,7 +7162,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>195</v>
       </c>
@@ -6990,7 +7187,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -7015,7 +7212,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -7036,7 +7233,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -7057,7 +7254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -7077,7 +7274,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>56</v>
       </c>
@@ -7097,7 +7294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -7117,7 +7314,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -7137,7 +7334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -7157,7 +7354,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -7177,7 +7374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -7197,7 +7394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -7217,7 +7414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -7237,7 +7434,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -7257,7 +7454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -7277,7 +7474,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>73</v>
       </c>
@@ -7295,7 +7492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -7316,7 +7513,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -7337,7 +7534,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -7354,7 +7551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -7371,7 +7568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>190</v>
       </c>
@@ -7388,7 +7585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -7405,12 +7602,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" s="15"/>
       <c r="C111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -7423,7 +7620,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>0</v>
       </c>
@@ -7440,7 +7637,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>3</v>
       </c>
@@ -7457,7 +7654,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>5</v>
       </c>
@@ -7474,7 +7671,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>6</v>
       </c>
@@ -7491,7 +7688,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>7</v>
       </c>
@@ -7508,7 +7705,7 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>1</v>
       </c>
@@ -7525,7 +7722,7 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>10</v>
       </c>
@@ -7540,7 +7737,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>11</v>
       </c>
@@ -7567,7 +7764,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>128</v>
       </c>
@@ -7592,11 +7789,11 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B122" s="52">
+      <c r="B122" s="51">
         <v>1.2</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -7615,11 +7812,11 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>81</v>
       </c>
-      <c r="B123" s="53">
+      <c r="B123" s="52">
         <f>70.909*1055/1000</f>
         <v>74.80899500000001</v>
       </c>
@@ -7640,11 +7837,11 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="52">
+      <c r="B124" s="51">
         <f>183592/1000/1000</f>
         <v>0.18359200000000001</v>
       </c>
@@ -7662,11 +7859,11 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>97</v>
       </c>
-      <c r="B125" s="53">
+      <c r="B125" s="52">
         <f>18949/1000/1000</f>
         <v>1.8949000000000001E-2</v>
       </c>
@@ -7684,11 +7881,11 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>195</v>
       </c>
-      <c r="B126" s="53">
+      <c r="B126" s="52">
         <f>(50.198*1055/1000)-B127</f>
         <v>48.407416111111104</v>
       </c>
@@ -7709,11 +7906,11 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
-      <c r="B127" s="53">
+      <c r="B127" s="52">
         <f>params!I9+params!H9</f>
         <v>4.5514738888888893</v>
       </c>
@@ -7734,11 +7931,11 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>120</v>
       </c>
-      <c r="B128" s="53">
+      <c r="B128" s="52">
         <f>26.838*1055/1000</f>
         <v>28.31409</v>
       </c>
@@ -7755,11 +7952,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="53">
+      <c r="B129" s="52">
         <f>58233*params!L15/1000</f>
         <v>220.4351982</v>
       </c>
@@ -7776,11 +7973,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="52">
+      <c r="B130" s="51">
         <v>3.153</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -7796,11 +7993,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>56</v>
       </c>
-      <c r="B131" s="53">
+      <c r="B131" s="52">
         <v>4.1580000000000004</v>
       </c>
       <c r="C131" t="s">
@@ -7816,11 +8013,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>83</v>
       </c>
-      <c r="B132" s="53">
+      <c r="B132" s="52">
         <v>1.516</v>
       </c>
       <c r="C132" t="s">
@@ -7836,11 +8033,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>44</v>
       </c>
-      <c r="B133" s="53">
+      <c r="B133" s="52">
         <v>2.915</v>
       </c>
       <c r="C133" t="s">
@@ -7856,11 +8053,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>105</v>
       </c>
-      <c r="B134" s="52">
+      <c r="B134" s="51">
         <v>1.175</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -7876,11 +8073,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>52</v>
       </c>
-      <c r="B135" s="53">
+      <c r="B135" s="52">
         <v>2.57</v>
       </c>
       <c r="C135" t="s">
@@ -7896,11 +8093,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>58</v>
       </c>
-      <c r="B136" s="53">
+      <c r="B136" s="52">
         <v>1.409</v>
       </c>
       <c r="C136" t="s">
@@ -7916,11 +8113,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>60</v>
       </c>
-      <c r="B137" s="53">
+      <c r="B137" s="52">
         <v>4.7E-2</v>
       </c>
       <c r="C137" t="s">
@@ -7936,11 +8133,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>62</v>
       </c>
-      <c r="B138" s="53">
+      <c r="B138" s="52">
         <v>0.08</v>
       </c>
       <c r="C138" t="s">
@@ -7956,11 +8153,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>121</v>
       </c>
-      <c r="B139" s="53">
+      <c r="B139" s="52">
         <v>0.57399999999999995</v>
       </c>
       <c r="C139" t="s">
@@ -7976,11 +8173,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>123</v>
       </c>
-      <c r="B140" s="53">
+      <c r="B140" s="52">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C140" t="s">
@@ -7996,11 +8193,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>73</v>
       </c>
-      <c r="B141" s="52">
+      <c r="B141" s="51">
         <f>28760/1000/1000</f>
         <v>2.8760000000000001E-2</v>
       </c>
@@ -8014,11 +8211,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>112</v>
       </c>
-      <c r="B142" s="52">
+      <c r="B142" s="51">
         <f>-22*1.08*2.63</f>
         <v>-62.488800000000005</v>
       </c>
@@ -8035,11 +8232,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>113</v>
       </c>
-      <c r="B143" s="52">
+      <c r="B143" s="51">
         <f>-22*1.08*2.63</f>
         <v>-62.488800000000005</v>
       </c>
@@ -8056,11 +8253,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>92</v>
       </c>
-      <c r="B144" s="53">
+      <c r="B144" s="52">
         <v>2.389217859846934</v>
       </c>
       <c r="C144" t="s">
@@ -8073,11 +8270,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>187</v>
       </c>
-      <c r="B145" s="53">
+      <c r="B145" s="52">
         <v>1.3976542015925989E-2</v>
       </c>
       <c r="C145" t="s">
@@ -8090,11 +8287,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>190</v>
       </c>
-      <c r="B146" s="53">
+      <c r="B146" s="52">
         <v>8.0531678912323294E-4</v>
       </c>
       <c r="C146" t="s">
@@ -8107,11 +8304,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>192</v>
       </c>
-      <c r="B147" s="53">
+      <c r="B147" s="52">
         <v>4.6459953459836861E-4</v>
       </c>
       <c r="C147" t="s">
@@ -8124,7 +8321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -8137,7 +8334,7 @@
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
     </row>
-    <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -8145,7 +8342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -8153,7 +8350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -8161,7 +8358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -8169,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -8177,7 +8374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8185,7 +8382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -8193,12 +8390,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -8221,7 +8418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>62</v>
       </c>
@@ -8241,7 +8438,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>66</v>
       </c>
@@ -8261,7 +8458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -8281,7 +8478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>27</v>
       </c>
@@ -8301,7 +8498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -8321,7 +8518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>44</v>
       </c>
@@ -8341,7 +8538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>67</v>
       </c>
@@ -8361,7 +8558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -8381,7 +8578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -8402,7 +8599,7 @@
       </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>68</v>
       </c>
@@ -8422,7 +8619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>47</v>
       </c>
@@ -8443,7 +8640,7 @@
       </c>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -8464,7 +8661,7 @@
       </c>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>47</v>
       </c>
@@ -8485,7 +8682,7 @@
       </c>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>69</v>
       </c>
@@ -8505,7 +8702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>69</v>
       </c>
@@ -8525,7 +8722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>71</v>
       </c>
@@ -8545,7 +8742,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>71</v>
       </c>
@@ -8565,7 +8762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>73</v>
       </c>
@@ -8582,7 +8779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>49</v>
       </c>
@@ -8599,7 +8796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>74</v>
       </c>
@@ -8616,7 +8813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>75</v>
       </c>
@@ -8633,7 +8830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>76</v>
       </c>
@@ -8650,7 +8847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>77</v>
       </c>
@@ -8667,7 +8864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>78</v>
       </c>
@@ -8684,7 +8881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>41</v>
       </c>
@@ -8701,7 +8898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>41</v>
       </c>
@@ -8719,45 +8916,45 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O184" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:O184"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612BA220-3611-BD48-A18F-4C8EEDD0A9A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="17"/>
-    <col min="2" max="2" width="20.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="17" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="17"/>
+    <col min="2" max="2" width="20.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="17" customWidth="1"/>
     <col min="4" max="4" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="17"/>
-    <col min="12" max="12" width="27.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="17"/>
-    <col min="15" max="15" width="19.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="17"/>
+    <col min="9" max="9" width="17.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.85546875" style="17"/>
+    <col min="12" max="12" width="27.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="17"/>
+    <col min="15" max="15" width="19.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
@@ -8765,21 +8962,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="31"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
@@ -8805,7 +9002,7 @@
       </c>
       <c r="M5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="32"/>
       <c r="C6" s="33" t="s">
         <v>7</v>
@@ -8835,7 +9032,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
         <v>143</v>
       </c>
@@ -8854,7 +9051,7 @@
       </c>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>145</v>
       </c>
@@ -8880,7 +9077,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>146</v>
       </c>
@@ -8911,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>147</v>
       </c>
@@ -8928,7 +9125,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
         <v>148</v>
       </c>
@@ -8940,7 +9137,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>149</v>
       </c>
@@ -8972,7 +9169,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
         <v>152</v>
       </c>
@@ -8990,7 +9187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>154</v>
       </c>
@@ -9013,7 +9210,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>156</v>
       </c>
@@ -9042,7 +9239,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>158</v>
       </c>
@@ -9065,7 +9262,7 @@
       </c>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>159</v>
       </c>
@@ -9094,7 +9291,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>161</v>
       </c>
@@ -9120,7 +9317,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>163</v>
       </c>
@@ -9137,7 +9334,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
         <v>164</v>
       </c>
@@ -9160,7 +9357,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>165</v>
       </c>
@@ -9183,7 +9380,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
         <v>166</v>
       </c>
@@ -9200,7 +9397,7 @@
       </c>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>167</v>
       </c>
@@ -9216,7 +9413,7 @@
         <v>0.21811999999999998</v>
       </c>
       <c r="I23" s="34"/>
-      <c r="L23" s="54" t="s">
+      <c r="L23" s="53" t="s">
         <v>197</v>
       </c>
       <c r="M23" s="48">
@@ -9224,7 +9421,7 @@
         <v>11316489.361702127</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>168</v>
       </c>
@@ -9241,7 +9438,7 @@
       </c>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
         <v>169</v>
       </c>
@@ -9259,7 +9456,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>170</v>
       </c>
@@ -9285,7 +9482,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>171</v>
       </c>
@@ -9305,7 +9502,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>172</v>
       </c>
@@ -9326,7 +9523,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>173</v>
       </c>
@@ -9341,7 +9538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L30" s="45" t="s">
         <v>181</v>
       </c>
@@ -9350,7 +9547,7 @@
         <v>53.564716312056731</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L31" s="45" t="s">
         <v>182</v>
       </c>
@@ -9358,7 +9555,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L34" s="45" t="s">
         <v>183</v>
       </c>

--- a/premise/data/additional_inventories/lci-cobalt.xlsx
+++ b/premise/data/additional_inventories/lci-cobalt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5DB36-E744-E747-861A-29953AA4048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="30240" windowHeight="18885"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disaggregated cobalt" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cobalt!$A$3:$O$184</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="198">
   <si>
     <t>Activity</t>
   </si>
@@ -656,18 +657,12 @@
   <si>
     <t>Total ore consumption [t/y]</t>
   </si>
-  <si>
-    <t>market for copper-cobalt ore</t>
-  </si>
-  <si>
-    <t>Market created to facilitate the regionalization</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -675,7 +670,6 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -889,7 +883,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -949,24 +943,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Per cent 2" xfId="3"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0E23583C-AEE8-A14E-BBED-EFF8448F4281}"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent 2" xfId="3" xr:uid="{D55BF8F8-B642-CC4D-B89F-8E3060549780}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,20 +1232,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N242"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F405F435-5E2B-E644-83D2-BBB8FE808D59}">
+  <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -1264,7 +1253,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1320,13 +1309,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1369,7 +1358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1389,7 +1378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1409,7 +1398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1429,7 +1418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1449,7 +1438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1469,7 +1458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1489,7 +1478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1530,7 +1519,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1550,7 +1539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1571,7 +1560,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1592,7 +1581,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1613,7 +1602,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1633,7 +1622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1653,7 +1642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1673,7 +1662,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -1693,7 +1682,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -1710,7 +1699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1727,7 +1716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1744,7 +1733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1761,7 +1750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1778,7 +1767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1795,7 +1784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1812,7 +1801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1829,7 +1818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1846,10 +1835,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1855,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>3</v>
       </c>
@@ -1883,7 +1872,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1889,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>6</v>
       </c>
@@ -1917,7 +1906,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>7</v>
       </c>
@@ -1934,7 +1923,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>1</v>
       </c>
@@ -1951,7 +1940,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>10</v>
       </c>
@@ -1966,7 +1955,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
@@ -1993,7 +1982,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>86</v>
       </c>
@@ -2018,7 +2007,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>90</v>
       </c>
@@ -2041,7 +2030,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>92</v>
       </c>
@@ -2059,7 +2048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2065,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>3</v>
       </c>
@@ -2093,7 +2082,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2099,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2116,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>7</v>
       </c>
@@ -2144,7 +2133,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>1</v>
       </c>
@@ -2161,7 +2150,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>10</v>
       </c>
@@ -2176,7 +2165,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
@@ -2203,7 +2192,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>93</v>
       </c>
@@ -2228,7 +2217,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>90</v>
       </c>
@@ -2251,7 +2240,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>92</v>
       </c>
@@ -2269,7 +2258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -2287,7 +2276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2308,7 +2297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -2326,7 +2315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -2344,12 +2333,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>187</v>
       </c>
-      <c r="B66" s="59">
-        <f>0.000288682761151584/(B196*B124*B148*B228)</f>
+      <c r="B66">
+        <f>0.000288682761151584/(B184*B125*B216)</f>
         <v>1.7060578978245007E-6</v>
       </c>
       <c r="C66" t="s">
@@ -2362,12 +2351,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="59">
-        <f>9.59621316379749E-06/(B196*B124*B148*B228)</f>
+      <c r="B67">
+        <f>9.59621316379749E-06/(B184*B125*B216)</f>
         <v>5.6711717706993802E-8</v>
       </c>
       <c r="C67" t="s">
@@ -2380,12 +2369,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="59">
-        <f>9.59621316379749E-06/(B196*B124*B148*B228)</f>
+      <c r="B68">
+        <f>9.59621316379749E-06/(B184*B125*B216)</f>
         <v>5.6711717706993802E-8</v>
       </c>
       <c r="C68" t="s">
@@ -2398,7 +2387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>0</v>
       </c>
@@ -2415,7 +2404,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2421,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2438,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>6</v>
       </c>
@@ -2466,7 +2455,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>7</v>
       </c>
@@ -2483,7 +2472,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>1</v>
       </c>
@@ -2500,7 +2489,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>10</v>
       </c>
@@ -2515,7 +2504,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>11</v>
       </c>
@@ -2542,7 +2531,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>98</v>
       </c>
@@ -2567,7 +2556,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>90</v>
       </c>
@@ -2590,7 +2579,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>92</v>
       </c>
@@ -2608,7 +2597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -2626,7 +2615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2647,7 +2636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -2665,7 +2654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -2683,12 +2672,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>187</v>
       </c>
       <c r="B85">
-        <f>0.000288682761151584/(B228*B162*B100)</f>
+        <f>0.000288682761151584/(B216*B150*B100)</f>
         <v>2.3569299555983307E-6</v>
       </c>
       <c r="C85" t="s">
@@ -2701,12 +2690,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>190</v>
       </c>
       <c r="B86">
-        <f>9.59621316379749E-06/(B228*B162*B100)</f>
+        <f>9.59621316379749E-06/(B216*B150*B100)</f>
         <v>7.8347602661958373E-8</v>
       </c>
       <c r="C86" t="s">
@@ -2719,12 +2708,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>192</v>
       </c>
       <c r="B87">
-        <f>9.59621316379749E-06/(B228*B162*B100)</f>
+        <f>9.59621316379749E-06/(B216*B150*B100)</f>
         <v>7.8347602661958373E-8</v>
       </c>
       <c r="C87" t="s">
@@ -2737,7 +2726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2743,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>3</v>
       </c>
@@ -2771,7 +2760,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +2777,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>6</v>
       </c>
@@ -2805,7 +2794,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>7</v>
       </c>
@@ -2822,7 +2811,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>1</v>
       </c>
@@ -2839,7 +2828,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>174</v>
       </c>
@@ -2856,7 +2845,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>10</v>
       </c>
@@ -2871,7 +2860,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>11</v>
       </c>
@@ -2898,7 +2887,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
@@ -2923,7 +2912,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>86</v>
       </c>
@@ -2945,7 +2934,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>98</v>
       </c>
@@ -2967,7 +2956,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>195</v>
       </c>
@@ -2988,7 +2977,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3009,7 +2998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -3030,7 +3019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -3051,7 +3040,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>44</v>
       </c>
@@ -3072,7 +3061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -3093,7 +3082,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3113,7 +3102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3133,7 +3122,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>95</v>
       </c>
@@ -3151,7 +3140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>73</v>
       </c>
@@ -3169,7 +3158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3189,7 +3178,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3209,13 +3198,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>0</v>
       </c>
@@ -3232,7 +3221,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>3</v>
       </c>
@@ -3249,7 +3238,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>5</v>
       </c>
@@ -3266,7 +3255,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>6</v>
       </c>
@@ -3283,7 +3272,7 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>7</v>
       </c>
@@ -3300,7 +3289,7 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>1</v>
       </c>
@@ -3317,7 +3306,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>175</v>
       </c>
@@ -3334,7 +3323,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>10</v>
       </c>
@@ -3349,7 +3338,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>11</v>
       </c>
@@ -3376,7 +3365,7 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>116</v>
       </c>
@@ -3401,20 +3390,20 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B124" s="57">
-        <f>1*params!M31</f>
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="B124" s="15">
+        <f>0.2*params!M31</f>
+        <v>14.8</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>15</v>
@@ -3422,146 +3411,144 @@
       <c r="G124" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" s="15">
+        <f>0.8*params!M31</f>
+        <v>59.2</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>195</v>
       </c>
-      <c r="B125" s="15">
+      <c r="B126" s="15">
         <f>params!G9</f>
         <v>3.0086695138888886</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C126" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E126" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F125" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" s="9" t="s">
+      <c r="F126" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B127" s="16">
         <f>params!G16</f>
         <v>0.52289999999999992</v>
       </c>
-      <c r="C126" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="9" t="s">
+      <c r="C127" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F126" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="F127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="15">
+      <c r="B128" s="15">
         <f>params!G15</f>
         <v>1.4357</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="9" t="s">
+      <c r="C128" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="F128" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>105</v>
       </c>
-      <c r="B128" s="15">
+      <c r="B129" s="15">
         <f>params!G18</f>
         <v>0.41125</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="9" t="s">
+      <c r="C129" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F128" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="F129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="15">
+      <c r="B130" s="15">
         <f>params!G17</f>
         <v>6.3E-2</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="9" t="s">
+      <c r="C130" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="F130" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="15">
+      <c r="B131" s="15">
         <f>params!G14</f>
         <v>1.10355</v>
       </c>
-      <c r="C130" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>109</v>
-      </c>
-      <c r="B131" s="16">
-        <v>2.7</v>
-      </c>
       <c r="C131" s="9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>4</v>
@@ -3570,15 +3557,15 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>110</v>
-      </c>
-      <c r="B132" s="15">
-        <v>13</v>
+        <v>109</v>
+      </c>
+      <c r="B132" s="16">
+        <v>2.7</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>22</v>
@@ -3590,68 +3577,68 @@
         <v>15</v>
       </c>
       <c r="G132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="15">
+        <v>13</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>95</v>
       </c>
-      <c r="B133" s="15">
+      <c r="B134" s="15">
         <f>params!G12/1000</f>
         <v>5.2141045950000006E-2</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C134" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D134" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F134" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>73</v>
       </c>
-      <c r="B134" s="15">
+      <c r="B135" s="15">
         <f>params!G28</f>
         <v>1.0066E-2</v>
       </c>
-      <c r="C134" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C135" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
         <v>39</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="F135" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>112</v>
-      </c>
-      <c r="B135" s="15">
-        <v>-22</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>113</v>
       </c>
       <c r="B136" s="15">
         <v>-22</v>
@@ -3660,368 +3647,435 @@
         <v>8</v>
       </c>
       <c r="E136" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>113</v>
+      </c>
+      <c r="B137" s="15">
+        <v>-22</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F136" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="F137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="54" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C138" s="55"/>
-      <c r="D138" s="55"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="55"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="55" t="s">
+      <c r="B139" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C139" s="55"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="55"/>
-      <c r="G139" s="55"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="55" t="s">
+      <c r="B143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="55"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="55"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B141" s="55">
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>185</v>
+      </c>
+      <c r="B149">
         <v>1</v>
       </c>
-      <c r="C141" s="55"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="55"/>
-      <c r="G141" s="55"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B142" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="55"/>
-      <c r="D142" s="55"/>
-      <c r="E142" s="55"/>
-      <c r="F142" s="55"/>
-      <c r="G142" s="55"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C143" s="55"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="55"/>
-      <c r="G143" s="55"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B144" s="55"/>
-      <c r="C144" s="55"/>
-      <c r="D144" s="55"/>
-      <c r="E144" s="55"/>
-      <c r="F144" s="55"/>
-      <c r="G144" s="55"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J145" s="54"/>
-      <c r="K145" s="54"/>
-      <c r="L145" s="54"/>
-      <c r="M145" s="54"/>
-      <c r="N145" s="54"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" t="s">
         <v>14</v>
       </c>
-      <c r="G146" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J146" s="9"/>
-      <c r="K146" s="55"/>
-      <c r="L146" s="55"/>
-      <c r="M146" s="55"/>
-      <c r="N146" s="55"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B147">
-        <v>0.2</v>
-      </c>
-      <c r="C147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="G149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>99</v>
+      </c>
+      <c r="B150" s="16">
+        <f>2.86*B146</f>
+        <v>1.0868</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s">
         <v>87</v>
       </c>
-      <c r="F147" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="9"/>
-      <c r="N147" s="9"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B148">
-        <v>0.8</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" t="s">
-        <v>87</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-    </row>
-    <row r="151" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>3</v>
-      </c>
-      <c r="B153" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>6</v>
-      </c>
-      <c r="B155" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>119</v>
-      </c>
-      <c r="B158">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" t="s">
-        <v>36</v>
-      </c>
-      <c r="E160" t="s">
-        <v>3</v>
-      </c>
-      <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>185</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" t="s">
-        <v>43</v>
-      </c>
-      <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>99</v>
-      </c>
-      <c r="B162" s="16">
-        <f>2.86*B158</f>
-        <v>1.0868</v>
-      </c>
-      <c r="C162" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" t="s">
-        <v>87</v>
-      </c>
-      <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" t="s">
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>120</v>
       </c>
-      <c r="B163" s="16">
+      <c r="B151" s="16">
         <f>params!$H$10</f>
         <v>10.759354200000001</v>
       </c>
+      <c r="C151" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="16">
+        <f>params!$H$9</f>
+        <v>1.1514738888888889</v>
+      </c>
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" s="16">
+        <f>params!$H$12</f>
+        <v>18.832213584000002</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>44</v>
+      </c>
+      <c r="B154" s="16">
+        <f>params!$H$17</f>
+        <v>1.0392999999999999</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>52</v>
+      </c>
+      <c r="B155" s="16">
+        <f>params!$H$19</f>
+        <v>0.97659999999999991</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>58</v>
+      </c>
+      <c r="B156" s="16">
+        <f>params!$H$20</f>
+        <v>0.53542000000000001</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>56</v>
+      </c>
+      <c r="B157" s="16">
+        <f>params!$H$15</f>
+        <v>2.128E-2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>83</v>
+      </c>
+      <c r="B158" s="16">
+        <f>params!$H$16</f>
+        <v>8.3599999999999994E-3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" s="16">
+        <f>params!$H$21</f>
+        <v>1.7860000000000001E-2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" s="16">
+        <f>params!$H$22</f>
+        <v>3.04E-2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>121</v>
+      </c>
+      <c r="B161" s="16">
+        <f>params!$H$23</f>
+        <v>0.21811999999999998</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>123</v>
+      </c>
+      <c r="B162" s="16">
+        <f>params!$H$24</f>
+        <v>3.3439999999999998E-2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" s="16">
+        <v>3.2859232000000002E-2</v>
+      </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
@@ -4030,557 +4084,557 @@
         <v>15</v>
       </c>
       <c r="G163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>37</v>
+      </c>
+      <c r="B164" s="16">
+        <v>2.6585139999999998E-3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" s="16">
+        <v>2.2225175999999999E-2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166" s="16">
+        <v>6.3697992999999994E-2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>54</v>
+      </c>
+      <c r="B167" s="16">
+        <v>-1.0035100616353101</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B168" s="16">
+        <v>-1.88412598664482E-2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>42</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>33</v>
+      </c>
+      <c r="B169" s="16">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" s="16">
+        <v>1.88412598664482E-2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>42</v>
+      </c>
+      <c r="D170" t="s">
+        <v>50</v>
+      </c>
+      <c r="F170" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>41</v>
+      </c>
+      <c r="B171" s="16">
+        <v>2.3245761180933701E-4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="F171" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>119</v>
+      </c>
+      <c r="B180">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" t="s">
+        <v>43</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>116</v>
+      </c>
+      <c r="B184" s="16">
+        <f>2.86*B180</f>
+        <v>1.0868</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" t="s">
+        <v>87</v>
+      </c>
+      <c r="F184" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>120</v>
+      </c>
+      <c r="B185" s="16">
+        <f>params!$H$10</f>
+        <v>10.759354200000001</v>
+      </c>
+      <c r="C185" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B186" s="16">
         <f>params!$H$9</f>
         <v>1.1514738888888889</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C186" t="s">
         <v>20</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E186" t="s">
         <v>43</v>
       </c>
-      <c r="F164" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>16</v>
       </c>
-      <c r="B165" s="16">
+      <c r="B187" s="16">
         <f>params!$H$12</f>
         <v>18.832213584000002</v>
       </c>
-      <c r="C165" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
         <v>17</v>
       </c>
-      <c r="F165" t="s">
-        <v>15</v>
-      </c>
-      <c r="G165" t="s">
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>44</v>
       </c>
-      <c r="B166" s="16">
+      <c r="B188" s="16">
         <f>params!$H$17</f>
         <v>1.0392999999999999</v>
       </c>
-      <c r="C166" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" t="s">
         <v>4</v>
       </c>
-      <c r="F166" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" t="s">
+      <c r="F188" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>52</v>
       </c>
-      <c r="B167" s="16">
+      <c r="B189" s="16">
         <f>params!$H$19</f>
         <v>0.97659999999999991</v>
       </c>
-      <c r="C167" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s">
         <v>17</v>
       </c>
-      <c r="F167" t="s">
-        <v>15</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>58</v>
       </c>
-      <c r="B168" s="16">
+      <c r="B190" s="16">
         <f>params!$H$20</f>
         <v>0.53542000000000001</v>
       </c>
-      <c r="C168" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
         <v>17</v>
       </c>
-      <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="F190" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>56</v>
       </c>
-      <c r="B169" s="16">
+      <c r="B191" s="16">
         <f>params!$H$15</f>
         <v>2.128E-2</v>
       </c>
-      <c r="C169" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" t="s">
         <v>17</v>
       </c>
-      <c r="F169" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="F191" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>83</v>
       </c>
-      <c r="B170" s="16">
+      <c r="B192" s="16">
         <f>params!$H$16</f>
         <v>8.3599999999999994E-3</v>
       </c>
-      <c r="C170" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s">
         <v>17</v>
       </c>
-      <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="F192" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>60</v>
       </c>
-      <c r="B171" s="16">
+      <c r="B193" s="16">
         <f>params!$H$21</f>
         <v>1.7860000000000001E-2</v>
       </c>
-      <c r="C171" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
         <v>17</v>
       </c>
-      <c r="F171" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" t="s">
+      <c r="F193" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>62</v>
       </c>
-      <c r="B172" s="16">
+      <c r="B194" s="16">
         <f>params!$H$22</f>
         <v>3.04E-2</v>
       </c>
-      <c r="C172" t="s">
-        <v>8</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
         <v>4</v>
       </c>
-      <c r="F172" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" t="s">
+      <c r="F194" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>121</v>
       </c>
-      <c r="B173" s="16">
+      <c r="B195" s="16">
         <f>params!$H$23</f>
         <v>0.21811999999999998</v>
       </c>
-      <c r="C173" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" t="s">
         <v>17</v>
       </c>
-      <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>123</v>
       </c>
-      <c r="B174" s="16">
+      <c r="B196" s="16">
         <f>params!$H$24</f>
         <v>3.3439999999999998E-2</v>
       </c>
-      <c r="C174" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
         <v>4</v>
       </c>
-      <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
+      <c r="F196" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>35</v>
       </c>
-      <c r="B175" s="16">
+      <c r="B197" s="16">
         <v>3.2859232000000002E-2</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C197" t="s">
         <v>22</v>
-      </c>
-      <c r="E175" t="s">
-        <v>17</v>
-      </c>
-      <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>37</v>
-      </c>
-      <c r="B176" s="16">
-        <v>2.6585139999999998E-3</v>
-      </c>
-      <c r="C176" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" t="s">
-        <v>17</v>
-      </c>
-      <c r="F176" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>23</v>
-      </c>
-      <c r="B177" s="16">
-        <v>2.2225175999999999E-2</v>
-      </c>
-      <c r="C177" t="s">
-        <v>22</v>
-      </c>
-      <c r="E177" t="s">
-        <v>17</v>
-      </c>
-      <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>27</v>
-      </c>
-      <c r="B178" s="16">
-        <v>6.3697992999999994E-2</v>
-      </c>
-      <c r="C178" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178" t="s">
-        <v>4</v>
-      </c>
-      <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>54</v>
-      </c>
-      <c r="B179" s="16">
-        <v>-1.0035100616353101</v>
-      </c>
-      <c r="C179" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179" t="s">
-        <v>17</v>
-      </c>
-      <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>47</v>
-      </c>
-      <c r="B180" s="16">
-        <v>-1.88412598664482E-2</v>
-      </c>
-      <c r="C180" t="s">
-        <v>42</v>
-      </c>
-      <c r="E180" t="s">
-        <v>17</v>
-      </c>
-      <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>33</v>
-      </c>
-      <c r="B181" s="16">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="C181" t="s">
-        <v>7</v>
-      </c>
-      <c r="E181" t="s">
-        <v>4</v>
-      </c>
-      <c r="F181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>49</v>
-      </c>
-      <c r="B182" s="16">
-        <v>1.88412598664482E-2</v>
-      </c>
-      <c r="C182" t="s">
-        <v>42</v>
-      </c>
-      <c r="D182" t="s">
-        <v>50</v>
-      </c>
-      <c r="F182" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>41</v>
-      </c>
-      <c r="B183" s="16">
-        <v>2.3245761180933701E-4</v>
-      </c>
-      <c r="C183" t="s">
-        <v>42</v>
-      </c>
-      <c r="D183" t="s">
-        <v>64</v>
-      </c>
-      <c r="F183" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>3</v>
-      </c>
-      <c r="B187" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>9</v>
-      </c>
-      <c r="B191" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>119</v>
-      </c>
-      <c r="B192">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" t="s">
-        <v>36</v>
-      </c>
-      <c r="E194" t="s">
-        <v>3</v>
-      </c>
-      <c r="F194" t="s">
-        <v>13</v>
-      </c>
-      <c r="G194" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>186</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195" t="s">
-        <v>8</v>
-      </c>
-      <c r="E195" t="s">
-        <v>43</v>
-      </c>
-      <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>116</v>
-      </c>
-      <c r="B196" s="16">
-        <f>2.86*B192</f>
-        <v>1.0868</v>
-      </c>
-      <c r="C196" t="s">
-        <v>8</v>
-      </c>
-      <c r="E196" t="s">
-        <v>87</v>
-      </c>
-      <c r="F196" t="s">
-        <v>15</v>
-      </c>
-      <c r="G196" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>120</v>
-      </c>
-      <c r="B197" s="16">
-        <f>params!$H$10</f>
-        <v>10.759354200000001</v>
-      </c>
-      <c r="C197" t="s">
-        <v>31</v>
       </c>
       <c r="E197" t="s">
         <v>17</v>
@@ -4589,40 +4643,38 @@
         <v>15</v>
       </c>
       <c r="G197" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B198" s="16">
-        <f>params!$H$9</f>
-        <v>1.1514738888888889</v>
+        <v>2.6585139999999998E-3</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
       </c>
       <c r="G198" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B199" s="16">
-        <f>params!$H$12</f>
-        <v>18.832213584000002</v>
+        <v>2.2225175999999999E-2</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E199" t="s">
         <v>17</v>
@@ -4631,19 +4683,18 @@
         <v>15</v>
       </c>
       <c r="G199" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B200" s="16">
-        <f>params!$H$17</f>
-        <v>1.0392999999999999</v>
+        <v>6.3697992999999994E-2</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E200" t="s">
         <v>4</v>
@@ -4652,16 +4703,15 @@
         <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B201" s="16">
-        <f>params!$H$19</f>
-        <v>0.97659999999999991</v>
+        <v>-1.0035100616353101</v>
       </c>
       <c r="C201" t="s">
         <v>8</v>
@@ -4673,19 +4723,18 @@
         <v>15</v>
       </c>
       <c r="G201" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B202" s="16">
-        <f>params!$H$20</f>
-        <v>0.53542000000000001</v>
+        <v>-1.88412598664482E-2</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E202" t="s">
         <v>17</v>
@@ -4694,318 +4743,304 @@
         <v>15</v>
       </c>
       <c r="G202" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B203" s="16">
-        <f>params!$H$15</f>
-        <v>2.128E-2</v>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F203" t="s">
         <v>15</v>
       </c>
       <c r="G203" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B204" s="16">
-        <f>params!$H$16</f>
-        <v>8.3599999999999994E-3</v>
+        <v>1.88412598664482E-2</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
-      </c>
-      <c r="E204" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="D204" t="s">
+        <v>50</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
-      </c>
-      <c r="G204" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B205" s="16">
-        <f>params!$H$21</f>
-        <v>1.7860000000000001E-2</v>
+        <v>2.3245761180933701E-4</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E205" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
       </c>
       <c r="F205" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>62</v>
-      </c>
-      <c r="B206" s="16">
-        <f>params!$H$22</f>
-        <v>3.04E-2</v>
-      </c>
-      <c r="C206" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206" t="s">
-        <v>4</v>
-      </c>
-      <c r="F206" t="s">
-        <v>15</v>
-      </c>
-      <c r="G206" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>121</v>
-      </c>
-      <c r="B207" s="16">
-        <f>params!$H$23</f>
-        <v>0.21811999999999998</v>
-      </c>
-      <c r="C207" t="s">
-        <v>8</v>
-      </c>
-      <c r="E207" t="s">
-        <v>17</v>
-      </c>
-      <c r="F207" t="s">
-        <v>15</v>
-      </c>
-      <c r="G207" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>123</v>
-      </c>
-      <c r="B208" s="16">
-        <f>params!$H$24</f>
-        <v>3.3439999999999998E-2</v>
-      </c>
-      <c r="C208" t="s">
-        <v>8</v>
-      </c>
-      <c r="E208" t="s">
-        <v>4</v>
-      </c>
-      <c r="F208" t="s">
-        <v>15</v>
-      </c>
-      <c r="G208" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>35</v>
-      </c>
-      <c r="B209" s="16">
-        <v>3.2859232000000002E-2</v>
-      </c>
-      <c r="C209" t="s">
-        <v>22</v>
-      </c>
-      <c r="E209" t="s">
-        <v>17</v>
-      </c>
-      <c r="F209" t="s">
-        <v>15</v>
-      </c>
-      <c r="G209" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>37</v>
-      </c>
-      <c r="B210" s="16">
-        <v>2.6585139999999998E-3</v>
-      </c>
-      <c r="C210" t="s">
-        <v>22</v>
-      </c>
-      <c r="E210" t="s">
-        <v>17</v>
-      </c>
-      <c r="F210" t="s">
-        <v>15</v>
-      </c>
-      <c r="G210" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>23</v>
-      </c>
-      <c r="B211" s="16">
-        <v>2.2225175999999999E-2</v>
-      </c>
-      <c r="C211" t="s">
-        <v>22</v>
-      </c>
-      <c r="E211" t="s">
-        <v>17</v>
-      </c>
-      <c r="F211" t="s">
-        <v>15</v>
-      </c>
-      <c r="G211" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>27</v>
-      </c>
-      <c r="B212" s="16">
-        <v>6.3697992999999994E-2</v>
-      </c>
-      <c r="C212" t="s">
-        <v>22</v>
-      </c>
-      <c r="E212" t="s">
-        <v>4</v>
-      </c>
-      <c r="F212" t="s">
-        <v>15</v>
-      </c>
-      <c r="G212" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>54</v>
-      </c>
-      <c r="B213" s="16">
-        <v>-1.0035100616353101</v>
-      </c>
-      <c r="C213" t="s">
-        <v>8</v>
-      </c>
-      <c r="E213" t="s">
-        <v>17</v>
-      </c>
-      <c r="F213" t="s">
-        <v>15</v>
-      </c>
-      <c r="G213" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>47</v>
-      </c>
-      <c r="B214" s="16">
-        <v>-1.88412598664482E-2</v>
-      </c>
-      <c r="C214" t="s">
-        <v>42</v>
-      </c>
-      <c r="E214" t="s">
-        <v>17</v>
-      </c>
-      <c r="F214" t="s">
-        <v>15</v>
-      </c>
-      <c r="G214" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>33</v>
-      </c>
-      <c r="B215" s="16">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="C215" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B206" s="16"/>
+    </row>
+    <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C207" s="8"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="9">
+        <v>1</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E215" t="s">
-        <v>4</v>
-      </c>
-      <c r="F215" t="s">
-        <v>15</v>
-      </c>
-      <c r="G215" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B211" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="9"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B215" s="9">
+        <v>1</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>49</v>
-      </c>
-      <c r="B216" s="16">
-        <v>1.88412598664482E-2</v>
-      </c>
-      <c r="C216" t="s">
-        <v>42</v>
-      </c>
-      <c r="D216" t="s">
-        <v>50</v>
-      </c>
-      <c r="F216" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="B216" s="9">
+        <v>2.63</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="9"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>41</v>
-      </c>
-      <c r="B217" s="16">
-        <v>2.3245761180933701E-4</v>
+        <v>19</v>
+      </c>
+      <c r="B217">
+        <f>params!I9</f>
+        <v>3.4</v>
       </c>
       <c r="C217" t="s">
-        <v>42</v>
-      </c>
-      <c r="D217" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="E217" t="s">
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="16"/>
-    </row>
-    <row r="219" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G217" t="s">
+        <v>21</v>
+      </c>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="9"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218" s="9"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
+    </row>
+    <row r="219" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="9"/>
@@ -5017,7 +5052,7 @@
       <c r="J219" s="9"/>
       <c r="K219" s="9"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -5034,7 +5069,7 @@
       <c r="J220" s="9"/>
       <c r="K220" s="9"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +5086,7 @@
       <c r="J221" s="9"/>
       <c r="K221" s="9"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>6</v>
       </c>
@@ -5068,7 +5103,7 @@
       <c r="J222" s="9"/>
       <c r="K222" s="9"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>7</v>
       </c>
@@ -5085,7 +5120,7 @@
       <c r="J223" s="9"/>
       <c r="K223" s="9"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>1</v>
       </c>
@@ -5102,7 +5137,7 @@
       <c r="J224" s="9"/>
       <c r="K224" s="9"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
         <v>10</v>
       </c>
@@ -5117,7 +5152,7 @@
       <c r="J225" s="9"/>
       <c r="K225" s="9"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -5144,9 +5179,9 @@
       <c r="J226" s="9"/>
       <c r="K226" s="9"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B227" s="9">
         <v>1</v>
@@ -5169,9 +5204,9 @@
       <c r="J227" s="9"/>
       <c r="K227" s="9"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B228" s="9">
         <v>2.63</v>
@@ -5194,7 +5229,7 @@
       <c r="J228" s="9"/>
       <c r="K228" s="9"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -5219,7 +5254,7 @@
       <c r="J229" s="9"/>
       <c r="K229" s="9"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -5232,238 +5267,6 @@
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
     </row>
-    <row r="231" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C231" s="8"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
-      <c r="F231" s="9"/>
-      <c r="G231" s="9"/>
-      <c r="H231" s="9"/>
-      <c r="I231" s="9"/>
-      <c r="J231" s="9"/>
-      <c r="K231" s="9"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
-      <c r="F232" s="9"/>
-      <c r="G232" s="9"/>
-      <c r="H232" s="9"/>
-      <c r="I232" s="9"/>
-      <c r="J232" s="9"/>
-      <c r="K232" s="9"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B233" s="9">
-        <v>1</v>
-      </c>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="9"/>
-      <c r="I233" s="9"/>
-      <c r="J233" s="9"/>
-      <c r="K233" s="9"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C234" s="9"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
-      <c r="F234" s="9"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="9"/>
-      <c r="I234" s="9"/>
-      <c r="J234" s="9"/>
-      <c r="K234" s="9"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
-      <c r="F235" s="9"/>
-      <c r="G235" s="9"/>
-      <c r="H235" s="9"/>
-      <c r="I235" s="9"/>
-      <c r="J235" s="9"/>
-      <c r="K235" s="9"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
-      <c r="F236" s="9"/>
-      <c r="G236" s="9"/>
-      <c r="H236" s="9"/>
-      <c r="I236" s="9"/>
-      <c r="J236" s="9"/>
-      <c r="K236" s="9"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
-      <c r="H237" s="9"/>
-      <c r="I237" s="9"/>
-      <c r="J237" s="9"/>
-      <c r="K237" s="9"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E238" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F238" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G238" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H238" s="9"/>
-      <c r="I238" s="9"/>
-      <c r="J238" s="9"/>
-      <c r="K238" s="9"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B239" s="9">
-        <v>1</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="9"/>
-      <c r="E239" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F239" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H239" s="9"/>
-      <c r="I239" s="9"/>
-      <c r="J239" s="9"/>
-      <c r="K239" s="9"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>186</v>
-      </c>
-      <c r="B240" s="9">
-        <v>2.63</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="9"/>
-      <c r="E240" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G240" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H240" s="9"/>
-      <c r="I240" s="9"/>
-      <c r="J240" s="9"/>
-      <c r="K240" s="9"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>19</v>
-      </c>
-      <c r="B241">
-        <f>params!I9</f>
-        <v>3.4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>20</v>
-      </c>
-      <c r="E241" t="s">
-        <v>43</v>
-      </c>
-      <c r="F241" t="s">
-        <v>15</v>
-      </c>
-      <c r="G241" t="s">
-        <v>21</v>
-      </c>
-      <c r="H241" s="9"/>
-      <c r="I241" s="9"/>
-      <c r="J241" s="9"/>
-      <c r="K241" s="9"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="9"/>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
-      <c r="D242" s="9"/>
-      <c r="E242" s="9"/>
-      <c r="F242" s="9"/>
-      <c r="G242" s="9"/>
-      <c r="H242" s="9"/>
-      <c r="I242" s="9"/>
-      <c r="J242" s="9"/>
-      <c r="K242" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5471,25 +5274,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -5506,7 +5309,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -5523,7 +5326,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5540,7 +5343,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -5557,7 +5360,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -5574,7 +5377,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
@@ -5591,7 +5394,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -5606,7 +5409,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -5633,7 +5436,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>185</v>
       </c>
@@ -5658,7 +5461,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>90</v>
       </c>
@@ -5682,7 +5485,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -5707,7 +5510,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -5729,7 +5532,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5751,7 +5554,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -5776,7 +5579,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5801,7 +5604,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -5822,7 +5625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -5843,7 +5646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -5863,7 +5666,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -5883,7 +5686,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -5903,7 +5706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -5923,7 +5726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -5943,7 +5746,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -5963,7 +5766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -5983,7 +5786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -6003,7 +5806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -6023,7 +5826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -6043,7 +5846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -6063,7 +5866,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -6081,7 +5884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -6102,7 +5905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -6123,7 +5926,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -6141,7 +5944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -6159,7 +5962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -6177,7 +5980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>192</v>
       </c>
@@ -6195,7 +5998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>0</v>
       </c>
@@ -6212,7 +6015,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>3</v>
       </c>
@@ -6229,7 +6032,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>5</v>
       </c>
@@ -6246,7 +6049,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>6</v>
       </c>
@@ -6263,7 +6066,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>7</v>
       </c>
@@ -6280,7 +6083,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>1</v>
       </c>
@@ -6297,7 +6100,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>10</v>
       </c>
@@ -6312,7 +6115,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -6339,7 +6142,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>186</v>
       </c>
@@ -6364,7 +6167,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>90</v>
       </c>
@@ -6388,7 +6191,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -6413,7 +6216,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -6435,7 +6238,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -6457,7 +6260,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -6482,7 +6285,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -6507,7 +6310,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -6528,7 +6331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -6549,7 +6352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -6569,7 +6372,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -6589,7 +6392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6609,7 +6412,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -6629,7 +6432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -6649,7 +6452,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -6669,7 +6472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -6689,7 +6492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -6709,7 +6512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -6729,7 +6532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -6749,7 +6552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -6769,7 +6572,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -6787,7 +6590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -6808,7 +6611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>113</v>
       </c>
@@ -6829,7 +6632,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -6847,7 +6650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -6865,7 +6668,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -6883,7 +6686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -6901,7 +6704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>0</v>
       </c>
@@ -6918,7 +6721,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>3</v>
       </c>
@@ -6935,7 +6738,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>5</v>
       </c>
@@ -6952,7 +6755,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>6</v>
       </c>
@@ -6969,7 +6772,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>7</v>
       </c>
@@ -6986,7 +6789,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>1</v>
       </c>
@@ -7003,7 +6806,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>10</v>
       </c>
@@ -7018,7 +6821,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>11</v>
       </c>
@@ -7045,7 +6848,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>127</v>
       </c>
@@ -7070,7 +6873,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>90</v>
       </c>
@@ -7093,7 +6896,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -7118,7 +6921,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -7140,7 +6943,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -7162,7 +6965,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>195</v>
       </c>
@@ -7187,7 +6990,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -7212,7 +7015,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -7233,7 +7036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -7254,7 +7057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -7274,7 +7077,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>56</v>
       </c>
@@ -7294,7 +7097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -7314,7 +7117,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -7334,7 +7137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -7354,7 +7157,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -7374,7 +7177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -7394,7 +7197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -7414,7 +7217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -7434,7 +7237,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -7454,7 +7257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -7474,7 +7277,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>73</v>
       </c>
@@ -7492,7 +7295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -7513,7 +7316,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -7534,7 +7337,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -7551,7 +7354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -7568,7 +7371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>190</v>
       </c>
@@ -7585,7 +7388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -7602,12 +7405,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B111" s="15"/>
       <c r="C111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -7620,7 +7423,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>0</v>
       </c>
@@ -7637,7 +7440,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>3</v>
       </c>
@@ -7654,7 +7457,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>5</v>
       </c>
@@ -7671,7 +7474,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>6</v>
       </c>
@@ -7688,7 +7491,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>7</v>
       </c>
@@ -7705,7 +7508,7 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>1</v>
       </c>
@@ -7722,7 +7525,7 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>10</v>
       </c>
@@ -7737,7 +7540,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>11</v>
       </c>
@@ -7764,7 +7567,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>128</v>
       </c>
@@ -7789,11 +7592,11 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B122" s="51">
+      <c r="B122" s="52">
         <v>1.2</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -7812,11 +7615,11 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>81</v>
       </c>
-      <c r="B123" s="52">
+      <c r="B123" s="53">
         <f>70.909*1055/1000</f>
         <v>74.80899500000001</v>
       </c>
@@ -7837,11 +7640,11 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="51">
+      <c r="B124" s="52">
         <f>183592/1000/1000</f>
         <v>0.18359200000000001</v>
       </c>
@@ -7859,11 +7662,11 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>97</v>
       </c>
-      <c r="B125" s="52">
+      <c r="B125" s="53">
         <f>18949/1000/1000</f>
         <v>1.8949000000000001E-2</v>
       </c>
@@ -7881,11 +7684,11 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>195</v>
       </c>
-      <c r="B126" s="52">
+      <c r="B126" s="53">
         <f>(50.198*1055/1000)-B127</f>
         <v>48.407416111111104</v>
       </c>
@@ -7906,11 +7709,11 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>19</v>
       </c>
-      <c r="B127" s="52">
+      <c r="B127" s="53">
         <f>params!I9+params!H9</f>
         <v>4.5514738888888893</v>
       </c>
@@ -7931,11 +7734,11 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>120</v>
       </c>
-      <c r="B128" s="52">
+      <c r="B128" s="53">
         <f>26.838*1055/1000</f>
         <v>28.31409</v>
       </c>
@@ -7952,11 +7755,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="52">
+      <c r="B129" s="53">
         <f>58233*params!L15/1000</f>
         <v>220.4351982</v>
       </c>
@@ -7973,11 +7776,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="51">
+      <c r="B130" s="52">
         <v>3.153</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -7993,11 +7796,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>56</v>
       </c>
-      <c r="B131" s="52">
+      <c r="B131" s="53">
         <v>4.1580000000000004</v>
       </c>
       <c r="C131" t="s">
@@ -8013,11 +7816,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>83</v>
       </c>
-      <c r="B132" s="52">
+      <c r="B132" s="53">
         <v>1.516</v>
       </c>
       <c r="C132" t="s">
@@ -8033,11 +7836,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>44</v>
       </c>
-      <c r="B133" s="52">
+      <c r="B133" s="53">
         <v>2.915</v>
       </c>
       <c r="C133" t="s">
@@ -8053,11 +7856,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>105</v>
       </c>
-      <c r="B134" s="51">
+      <c r="B134" s="52">
         <v>1.175</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -8073,11 +7876,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>52</v>
       </c>
-      <c r="B135" s="52">
+      <c r="B135" s="53">
         <v>2.57</v>
       </c>
       <c r="C135" t="s">
@@ -8093,11 +7896,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>58</v>
       </c>
-      <c r="B136" s="52">
+      <c r="B136" s="53">
         <v>1.409</v>
       </c>
       <c r="C136" t="s">
@@ -8113,11 +7916,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>60</v>
       </c>
-      <c r="B137" s="52">
+      <c r="B137" s="53">
         <v>4.7E-2</v>
       </c>
       <c r="C137" t="s">
@@ -8133,11 +7936,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>62</v>
       </c>
-      <c r="B138" s="52">
+      <c r="B138" s="53">
         <v>0.08</v>
       </c>
       <c r="C138" t="s">
@@ -8153,11 +7956,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>121</v>
       </c>
-      <c r="B139" s="52">
+      <c r="B139" s="53">
         <v>0.57399999999999995</v>
       </c>
       <c r="C139" t="s">
@@ -8173,11 +7976,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>123</v>
       </c>
-      <c r="B140" s="52">
+      <c r="B140" s="53">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C140" t="s">
@@ -8193,11 +7996,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>73</v>
       </c>
-      <c r="B141" s="51">
+      <c r="B141" s="52">
         <f>28760/1000/1000</f>
         <v>2.8760000000000001E-2</v>
       </c>
@@ -8211,11 +8014,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>112</v>
       </c>
-      <c r="B142" s="51">
+      <c r="B142" s="52">
         <f>-22*1.08*2.63</f>
         <v>-62.488800000000005</v>
       </c>
@@ -8232,11 +8035,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>113</v>
       </c>
-      <c r="B143" s="51">
+      <c r="B143" s="52">
         <f>-22*1.08*2.63</f>
         <v>-62.488800000000005</v>
       </c>
@@ -8253,11 +8056,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>92</v>
       </c>
-      <c r="B144" s="52">
+      <c r="B144" s="53">
         <v>2.389217859846934</v>
       </c>
       <c r="C144" t="s">
@@ -8270,11 +8073,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>187</v>
       </c>
-      <c r="B145" s="52">
+      <c r="B145" s="53">
         <v>1.3976542015925989E-2</v>
       </c>
       <c r="C145" t="s">
@@ -8287,11 +8090,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>190</v>
       </c>
-      <c r="B146" s="52">
+      <c r="B146" s="53">
         <v>8.0531678912323294E-4</v>
       </c>
       <c r="C146" t="s">
@@ -8304,11 +8107,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>192</v>
       </c>
-      <c r="B147" s="52">
+      <c r="B147" s="53">
         <v>4.6459953459836861E-4</v>
       </c>
       <c r="C147" t="s">
@@ -8321,7 +8124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -8334,7 +8137,7 @@
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -8342,7 +8145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -8350,7 +8153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -8358,7 +8161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -8366,7 +8169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -8374,7 +8177,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8382,7 +8185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -8390,12 +8193,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -8418,7 +8221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>62</v>
       </c>
@@ -8438,7 +8241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>66</v>
       </c>
@@ -8458,7 +8261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -8478,7 +8281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>27</v>
       </c>
@@ -8498,7 +8301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -8518,7 +8321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>44</v>
       </c>
@@ -8538,7 +8341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>67</v>
       </c>
@@ -8558,7 +8361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -8578,7 +8381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -8599,7 +8402,7 @@
       </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>68</v>
       </c>
@@ -8619,7 +8422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>47</v>
       </c>
@@ -8640,7 +8443,7 @@
       </c>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -8661,7 +8464,7 @@
       </c>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>47</v>
       </c>
@@ -8682,7 +8485,7 @@
       </c>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>69</v>
       </c>
@@ -8702,7 +8505,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>69</v>
       </c>
@@ -8722,7 +8525,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>71</v>
       </c>
@@ -8742,7 +8545,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>71</v>
       </c>
@@ -8762,7 +8565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>73</v>
       </c>
@@ -8779,7 +8582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>49</v>
       </c>
@@ -8796,7 +8599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>74</v>
       </c>
@@ -8813,7 +8616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>75</v>
       </c>
@@ -8830,7 +8633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>76</v>
       </c>
@@ -8847,7 +8650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>77</v>
       </c>
@@ -8864,7 +8667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>78</v>
       </c>
@@ -8881,7 +8684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>41</v>
       </c>
@@ -8898,7 +8701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>41</v>
       </c>
@@ -8916,45 +8719,45 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O184"/>
+  <autoFilter ref="A2:O184" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612BA220-3611-BD48-A18F-4C8EEDD0A9A0}">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="17"/>
-    <col min="2" max="2" width="20.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="17"/>
+    <col min="2" max="2" width="20.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="17" customWidth="1"/>
     <col min="4" max="4" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.85546875" style="17"/>
-    <col min="12" max="12" width="27.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="17"/>
-    <col min="15" max="15" width="19.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.85546875" style="17"/>
+    <col min="9" max="9" width="17.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="17"/>
+    <col min="12" max="12" width="27.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="17"/>
+    <col min="15" max="15" width="19.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
@@ -8962,21 +8765,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="31"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
@@ -9002,7 +8805,7 @@
       </c>
       <c r="M5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
       <c r="C6" s="33" t="s">
         <v>7</v>
@@ -9032,7 +8835,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
         <v>143</v>
       </c>
@@ -9051,7 +8854,7 @@
       </c>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
         <v>145</v>
       </c>
@@ -9077,7 +8880,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
         <v>146</v>
       </c>
@@ -9108,7 +8911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>147</v>
       </c>
@@ -9125,7 +8928,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="37" t="s">
         <v>148</v>
       </c>
@@ -9137,7 +8940,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
         <v>149</v>
       </c>
@@ -9169,7 +8972,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="37" t="s">
         <v>152</v>
       </c>
@@ -9187,7 +8990,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>154</v>
       </c>
@@ -9210,7 +9013,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>156</v>
       </c>
@@ -9239,7 +9042,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>158</v>
       </c>
@@ -9262,7 +9065,7 @@
       </c>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
         <v>159</v>
       </c>
@@ -9291,7 +9094,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
         <v>161</v>
       </c>
@@ -9317,7 +9120,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>163</v>
       </c>
@@ -9334,7 +9137,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>164</v>
       </c>
@@ -9357,7 +9160,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
         <v>165</v>
       </c>
@@ -9380,7 +9183,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="20" t="s">
         <v>166</v>
       </c>
@@ -9397,7 +9200,7 @@
       </c>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>167</v>
       </c>
@@ -9413,7 +9216,7 @@
         <v>0.21811999999999998</v>
       </c>
       <c r="I23" s="34"/>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="54" t="s">
         <v>197</v>
       </c>
       <c r="M23" s="48">
@@ -9421,7 +9224,7 @@
         <v>11316489.361702127</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>168</v>
       </c>
@@ -9438,7 +9241,7 @@
       </c>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="37" t="s">
         <v>169</v>
       </c>
@@ -9456,7 +9259,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>170</v>
       </c>
@@ -9482,7 +9285,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
         <v>171</v>
       </c>
@@ -9502,7 +9305,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
         <v>172</v>
       </c>
@@ -9523,7 +9326,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>173</v>
       </c>
@@ -9538,7 +9341,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L30" s="45" t="s">
         <v>181</v>
       </c>
@@ -9547,7 +9350,7 @@
         <v>53.564716312056731</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L31" s="45" t="s">
         <v>182</v>
       </c>
@@ -9555,7 +9358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L34" s="45" t="s">
         <v>183</v>
       </c>
